--- a/GEP/Output_Clusters_Asigned_To_Countries/ward_10_af_df_wind_offshore.xlsx
+++ b/GEP/Output_Clusters_Asigned_To_Countries/ward_10_af_df_wind_offshore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1356,7 +1356,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Liechtenstein</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1393,7 +1393,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1430,7 +1430,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1467,7 +1467,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1504,7 +1504,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1541,17 +1541,17 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>0.01136363636363637</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.06926952141057929</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.08085250338294976</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.2194244604316549</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.09686817188638054</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -1578,17 +1578,17 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01136363636363637</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.06926952141057929</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.08085250338294976</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1597,16 +1597,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.2194244604316549</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.1613382899628248</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.09686817188638054</v>
+        <v>0.1449380917698474</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -1615,14 +1615,14 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>0.0006313131313131313</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>0.003778337531486146</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1637,13 +1637,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1613382899628248</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1449380917698474</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -1652,14 +1652,14 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0006313131313131313</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003778337531486146</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1689,7 +1689,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>The former Yugoslav Republic of Macedonia</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1721,6 +1721,117 @@
       </c>
       <c r="K35" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Luxembourg</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.05755395683453236</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.3138075313807529</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.4194023569023608</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.9596977329974815</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.5274018944519587</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.6691729323308216</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.7230215827338132</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.2245353159851296</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.576474872541879</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.4811715481171546</v>
       </c>
     </row>
   </sheetData>
